--- a/2015十一出行.xlsx
+++ b/2015十一出行.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11385" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="回程机票" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="86">
   <si>
     <t>航班号</t>
   </si>
@@ -254,15 +254,81 @@
     <t>辛悦宾馆（张掖二分店）
 三人间 179</t>
   </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>东川路 - 广兰路</t>
+  </si>
+  <si>
+    <t>广兰路-浦东机场</t>
+  </si>
+  <si>
+    <t>安检+等待</t>
+  </si>
+  <si>
+    <t>机场大巴+出租车</t>
+  </si>
+  <si>
+    <t>兰州途家斯维登服务公寓</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>上海 - 兰州</t>
+  </si>
+  <si>
+    <t>兰州一日游</t>
+  </si>
+  <si>
+    <t>早餐 - 周勇/文吉蓬灰牛肉拉面</t>
+  </si>
+  <si>
+    <t>午餐 - 随便吃吃</t>
+  </si>
+  <si>
+    <t>宵夜 - 正宁路夜市</t>
+  </si>
+  <si>
+    <t>黄河铁桥、白塔山公园</t>
+  </si>
+  <si>
+    <t>找旅行社？ - 爸爸负责（博物馆周一闭馆）</t>
+  </si>
+  <si>
+    <t>午餐 - 张掖路步行街 - 马子禄牛肉面</t>
+  </si>
+  <si>
+    <t>关西大清真寺</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>兰州 - 天水   4个半小时火车</t>
+  </si>
+  <si>
+    <t>兰州 - 夏河  早上8：30 5个半小时汽车</t>
+  </si>
+  <si>
+    <t>天水 - 西安   5个小时火车</t>
+  </si>
+  <si>
+    <t>西安 - 上海   900以下，2个小时20分</t>
+  </si>
+  <si>
+    <t>兰州 - 张掖</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dddd"/>
+    <numFmt numFmtId="164" formatCode="dddd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -308,6 +374,14 @@
       <name val="KaiTi"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -341,19 +415,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,6 +435,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,25 +734,25 @@
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -697,7 +776,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -729,7 +808,7 @@
       <c r="G3" s="3">
         <v>42280</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <f>WEEKDAY(G3,1)</f>
         <v>7</v>
       </c>
@@ -760,7 +839,7 @@
       <c r="G4" s="3">
         <v>42280</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <f t="shared" ref="H4:H22" si="0">WEEKDAY(G4,1)</f>
         <v>7</v>
       </c>
@@ -791,7 +870,7 @@
       <c r="G5" s="3">
         <v>42280</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -822,7 +901,7 @@
       <c r="G6" s="3">
         <v>42280</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
@@ -832,35 +911,35 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <v>42281</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <v>989</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -884,7 +963,7 @@
       <c r="G8" s="3">
         <v>42281</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -893,35 +972,35 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>42281</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="8">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>1048</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -947,7 +1026,7 @@
       <c r="G10" s="3">
         <v>42281</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -980,7 +1059,7 @@
       <c r="G11" s="3">
         <v>42282</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1010,7 +1089,7 @@
       <c r="G12" s="3">
         <v>42282</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1040,7 +1119,7 @@
       <c r="G13" s="3">
         <v>42282</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1070,7 +1149,7 @@
       <c r="G14" s="3">
         <v>42282</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1103,7 +1182,7 @@
       <c r="G15" s="3">
         <v>42283</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1133,7 +1212,7 @@
       <c r="G16" s="3">
         <v>42283</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1163,7 +1242,7 @@
       <c r="G17" s="3">
         <v>42283</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1196,7 +1275,7 @@
       <c r="G18" s="3">
         <v>42283</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1226,7 +1305,7 @@
       <c r="G19" s="3">
         <v>42284</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1256,7 +1335,7 @@
       <c r="G20" s="3">
         <v>42284</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1286,7 +1365,7 @@
       <c r="G21" s="3">
         <v>42284</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1316,7 +1395,7 @@
       <c r="G22" s="3">
         <v>42284</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1337,7 +1416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -1350,18 +1429,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -1385,7 +1464,7 @@
       <c r="G2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1395,7 +1474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="9" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
@@ -1417,8 +1496,8 @@
       <c r="G3" s="3">
         <v>42274</v>
       </c>
-      <c r="H3" s="6">
-        <f>WEEKDAY(G3,1)</f>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H22" si="0">WEEKDAY(G3,1)</f>
         <v>1</v>
       </c>
       <c r="I3" s="1">
@@ -1427,32 +1506,32 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="C4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>42274</v>
       </c>
-      <c r="H4" s="9">
-        <f>WEEKDAY(G4,1)</f>
+      <c r="H4" s="8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <v>1155</v>
       </c>
     </row>
@@ -1478,8 +1557,8 @@
       <c r="G5" s="3">
         <v>42274</v>
       </c>
-      <c r="H5" s="6">
-        <f>WEEKDAY(G5,1)</f>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I5" s="1">
@@ -1490,32 +1569,32 @@
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="7">
         <v>42274</v>
       </c>
-      <c r="H6" s="9">
-        <f>WEEKDAY(G6,1)</f>
+      <c r="H6" s="8">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <v>977</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -1546,8 +1625,8 @@
       <c r="G7" s="3">
         <v>42275</v>
       </c>
-      <c r="H7" s="6">
-        <f>WEEKDAY(G7,1)</f>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I7" s="1">
@@ -1558,32 +1637,32 @@
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>42275</v>
       </c>
-      <c r="H8" s="9">
-        <f>WEEKDAY(G8,1)</f>
+      <c r="H8" s="8">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>1065</v>
       </c>
       <c r="J8" s="1"/>
@@ -1612,8 +1691,8 @@
       <c r="G9" s="3">
         <v>42275</v>
       </c>
-      <c r="H9" s="6">
-        <f>WEEKDAY(G9,1)</f>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I9" s="1">
@@ -1647,8 +1726,8 @@
       <c r="G10" s="3">
         <v>42275</v>
       </c>
-      <c r="H10" s="6">
-        <f>WEEKDAY(G10,1)</f>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I10" s="1">
@@ -1682,8 +1761,8 @@
       <c r="G11" s="3">
         <v>42276</v>
       </c>
-      <c r="H11" s="6">
-        <f>WEEKDAY(G11,1)</f>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I11" s="1">
@@ -1715,8 +1794,8 @@
       <c r="G12" s="3">
         <v>42276</v>
       </c>
-      <c r="H12" s="6">
-        <f>WEEKDAY(G12,1)</f>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I12" s="1">
@@ -1748,8 +1827,8 @@
       <c r="G13" s="3">
         <v>42276</v>
       </c>
-      <c r="H13" s="6">
-        <f>WEEKDAY(G13,1)</f>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I13" s="1">
@@ -1781,8 +1860,8 @@
       <c r="G14" s="3">
         <v>42276</v>
       </c>
-      <c r="H14" s="6">
-        <f>WEEKDAY(G14,1)</f>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1814,8 +1893,8 @@
       <c r="G15" s="3">
         <v>42277</v>
       </c>
-      <c r="H15" s="6">
-        <f>WEEKDAY(G15,1)</f>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1847,8 +1926,8 @@
       <c r="G16" s="3">
         <v>42277</v>
       </c>
-      <c r="H16" s="6">
-        <f>WEEKDAY(G16,1)</f>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I16" s="1">
@@ -1880,8 +1959,8 @@
       <c r="G17" s="3">
         <v>42277</v>
       </c>
-      <c r="H17" s="6">
-        <f>WEEKDAY(G17,1)</f>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I17" s="1">
@@ -1913,8 +1992,8 @@
       <c r="G18" s="3">
         <v>42277</v>
       </c>
-      <c r="H18" s="6">
-        <f>WEEKDAY(G18,1)</f>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I18" s="1">
@@ -1946,8 +2025,8 @@
       <c r="G19" s="3">
         <v>42278</v>
       </c>
-      <c r="H19" s="6">
-        <f>WEEKDAY(G19,1)</f>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I19" s="1">
@@ -1979,8 +2058,8 @@
       <c r="G20" s="3">
         <v>42278</v>
       </c>
-      <c r="H20" s="6">
-        <f>WEEKDAY(G20,1)</f>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I20" s="1">
@@ -2012,8 +2091,8 @@
       <c r="G21" s="3">
         <v>42278</v>
       </c>
-      <c r="H21" s="6">
-        <f>WEEKDAY(G21,1)</f>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I21" s="1">
@@ -2045,8 +2124,8 @@
       <c r="G22" s="3">
         <v>42278</v>
       </c>
-      <c r="H22" s="6">
-        <f>WEEKDAY(G22,1)</f>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I22" s="1">
@@ -2064,7 +2143,7 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="6"/>
+      <c r="H23" s="5"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
@@ -2078,7 +2157,7 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="6"/>
+      <c r="H24" s="5"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
@@ -2092,7 +2171,7 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="6"/>
+      <c r="H25" s="5"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -2106,7 +2185,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="6"/>
+      <c r="H26" s="5"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2120,7 +2199,7 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="6"/>
+      <c r="H27" s="5"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2134,7 +2213,7 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="6"/>
+      <c r="H28" s="5"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2148,7 +2227,7 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="6"/>
+      <c r="H29" s="5"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2162,7 +2241,7 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="3"/>
-      <c r="H30" s="6"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
@@ -2180,8 +2259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2190,181 +2269,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="141.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="243" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="202.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="81" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="13"/>
+      <c r="A7" s="12"/>
     </row>
     <row r="8" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+      <c r="A8" s="12"/>
     </row>
     <row r="9" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+      <c r="A9" s="12"/>
     </row>
     <row r="10" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+      <c r="A10" s="12"/>
     </row>
     <row r="11" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
+      <c r="A11" s="12" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="A12" s="12" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="13" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="A13" s="12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="14" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="A14" s="12" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="15" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
+      <c r="A15" s="12"/>
     </row>
     <row r="16" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+      <c r="A16" s="12"/>
     </row>
     <row r="17" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="12"/>
     </row>
     <row r="18" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="12"/>
     </row>
     <row r="19" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="12"/>
     </row>
     <row r="21" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="12"/>
     </row>
     <row r="22" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="12"/>
     </row>
     <row r="23" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+      <c r="A24" s="12"/>
     </row>
     <row r="25" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="12"/>
     </row>
     <row r="26" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="12"/>
     </row>
     <row r="27" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="12"/>
     </row>
     <row r="28" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
+      <c r="A28" s="12"/>
     </row>
     <row r="29" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="12"/>
     </row>
     <row r="30" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="12"/>
     </row>
     <row r="31" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="12"/>
     </row>
     <row r="32" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
+      <c r="A32" s="12"/>
     </row>
     <row r="33" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="12"/>
     </row>
     <row r="34" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="12"/>
     </row>
     <row r="35" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="12"/>
     </row>
     <row r="36" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
+      <c r="A36" s="12"/>
     </row>
     <row r="37" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="12"/>
     </row>
     <row r="38" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="12"/>
     </row>
     <row r="39" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12"/>
     </row>
     <row r="40" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+      <c r="A40" s="12"/>
     </row>
     <row r="41" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
     </row>
     <row r="42" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="12"/>
     </row>
     <row r="43" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="12"/>
     </row>
     <row r="44" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A44" s="13"/>
+      <c r="A44" s="12"/>
     </row>
     <row r="45" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
     </row>
     <row r="46" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="12"/>
     </row>
     <row r="47" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="12"/>
     </row>
     <row r="48" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A48" s="13"/>
+      <c r="A48" s="12"/>
     </row>
     <row r="49" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="12"/>
     </row>
     <row r="50" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
     </row>
     <row r="51" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
     </row>
     <row r="52" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12"/>
     </row>
     <row r="53" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
     </row>
     <row r="54" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
     </row>
     <row r="55" spans="1:1" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2377,7 +2464,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,413 +2473,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
     </row>
     <row r="4" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
     </row>
     <row r="5" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
     </row>
     <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
     </row>
     <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
     </row>
     <row r="8" spans="1:13" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
     </row>
     <row r="9" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
     </row>
     <row r="10" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
     </row>
     <row r="12" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
     </row>
     <row r="13" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
     </row>
     <row r="14" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
     </row>
     <row r="15" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
     </row>
     <row r="16" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
     </row>
     <row r="17" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
     </row>
     <row r="18" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
     </row>
     <row r="19" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
     </row>
     <row r="21" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13"/>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
     </row>
     <row r="23" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
     </row>
     <row r="24" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
     </row>
     <row r="25" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
     </row>
     <row r="26" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
     </row>
     <row r="27" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2801,12 +2888,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="20">
+        <v>42274</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B4" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B7" s="17">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="20">
+        <v>42275</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="16">
+        <v>42276</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>